--- a/DES/data pembanding 2015.xlsx
+++ b/DES/data pembanding 2015.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\des\DES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,6 +138,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -180,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +221,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,7 +469,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DES/data pembanding 2015.xlsx
+++ b/DES/data pembanding 2015.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\des\DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PHP\des\DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -143,6 +146,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>5882</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>7101</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>8132</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>4883</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>5030</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>5622</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>3908</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>2878</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>3794</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>4956</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>6197</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>4244</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -221,23 +298,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -273,23 +333,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,7 +512,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +548,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>5882</v>
       </c>
       <c r="C6" s="2">
@@ -516,7 +559,7 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>7101</v>
       </c>
       <c r="C7" s="2">
@@ -527,7 +570,7 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>8132</v>
       </c>
       <c r="C8" s="2">
@@ -538,7 +581,7 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>4883</v>
       </c>
       <c r="C9" s="3">
@@ -549,7 +592,7 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>5030</v>
       </c>
       <c r="C10" s="3">
@@ -560,7 +603,7 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>5622</v>
       </c>
       <c r="C11" s="3">
@@ -571,7 +614,7 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>3908</v>
       </c>
       <c r="C12" s="3">
@@ -582,7 +625,7 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>2878</v>
       </c>
       <c r="C13" s="3">
@@ -593,7 +636,7 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>3794</v>
       </c>
       <c r="C14" s="3">
@@ -604,7 +647,7 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>4956</v>
       </c>
       <c r="C15" s="3">
@@ -615,7 +658,7 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>6197</v>
       </c>
       <c r="C16" s="3">
@@ -626,7 +669,7 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>4244</v>
       </c>
       <c r="C17" s="3">
@@ -635,7 +678,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f>SUM(B6:B17)</f>
+        <f>SUM([1]Sheet1!B2:B13)</f>
         <v>62627</v>
       </c>
       <c r="C18">
